--- a/Dokumente/Anforderungsliste.xlsx
+++ b/Dokumente/Anforderungsliste.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t xml:space="preserve">Anforderungsliste Softwareengeneeringprojekt </t>
   </si>
   <si>
-    <t>V 1.0</t>
-  </si>
-  <si>
     <t>Wirtschaftlichkeit</t>
   </si>
   <si>
-    <t>Lebensdauer</t>
-  </si>
-  <si>
     <t>ein Prototyp</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Programmiersprache</t>
   </si>
   <si>
-    <t>JAVA</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -82,6 +73,90 @@
   </si>
   <si>
     <t>Programm-Code</t>
+  </si>
+  <si>
+    <t>maximaler Programmieraufwand</t>
+  </si>
+  <si>
+    <t>60h</t>
+  </si>
+  <si>
+    <t>JAVA ab Version 7.0</t>
+  </si>
+  <si>
+    <t>Bedienung im Spiel</t>
+  </si>
+  <si>
+    <t>Bedienung im Hauptmenu</t>
+  </si>
+  <si>
+    <t>GUI / Maus</t>
+  </si>
+  <si>
+    <t>Darstellung / Design</t>
+  </si>
+  <si>
+    <t>Snake kann fressen</t>
+  </si>
+  <si>
+    <t>Snake wächst nach fressen</t>
+  </si>
+  <si>
+    <t>Fressen auf Spielfeld vorhanden</t>
+  </si>
+  <si>
+    <t>Spiel Ende</t>
+  </si>
+  <si>
+    <t>Snake frisst sich selber</t>
+  </si>
+  <si>
+    <t>Snake fährt in die Wand</t>
+  </si>
+  <si>
+    <t>Betätigung der Escape-Taste</t>
+  </si>
+  <si>
+    <t>Punktanzeige nach Spielende</t>
+  </si>
+  <si>
+    <t>Snake fährt / reagiert auf Pfeiltasten</t>
+  </si>
+  <si>
+    <t>Pfeiltasten</t>
+  </si>
+  <si>
+    <t>Snake erreicht Maximallänge</t>
+  </si>
+  <si>
+    <t>Spielfeldgrösse</t>
+  </si>
+  <si>
+    <t>GUI Hintergrund</t>
+  </si>
+  <si>
+    <t>weiss</t>
+  </si>
+  <si>
+    <t>Hintergrundbild</t>
+  </si>
+  <si>
+    <t>Snake Farbe</t>
+  </si>
+  <si>
+    <t>schwarz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Kopf </t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>Essensymbol</t>
+  </si>
+  <si>
+    <t>Maus</t>
   </si>
 </sst>
 </file>
@@ -466,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I41"/>
+  <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +553,7 @@
     <col min="3" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
     <col min="6" max="6" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,9 +561,6 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
@@ -501,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -515,181 +587,512 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="15" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="F21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>3</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>18</v>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="34" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Anforderungsliste.xlsx
+++ b/Dokumente/Anforderungsliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t xml:space="preserve">Anforderungsliste Softwareengeneeringprojekt </t>
   </si>
@@ -69,12 +69,6 @@
     <t>180h</t>
   </si>
   <si>
-    <t>Entwicklungs-Prozess</t>
-  </si>
-  <si>
-    <t>Programm-Code</t>
-  </si>
-  <si>
     <t>maximaler Programmieraufwand</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>Maus</t>
+  </si>
+  <si>
+    <t>Projekt-Dokumentation</t>
+  </si>
+  <si>
+    <t>Programmcode-Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -228,18 +228,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,546 +682,725 @@
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    <row r="2" spans="2:9" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
         <v>5</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
+        <v>7</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>4</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>3</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>3</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>3</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>5</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="14">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="2:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>4</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>2</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <v>4</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0</v>
+      </c>
+      <c r="D36" s="12">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="37" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="2:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <v>5</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>5</v>
+      </c>
+      <c r="C40" s="12">
+        <v>0</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>5</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0</v>
+      </c>
+      <c r="D41" s="25">
+        <v>2</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>2</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="34" spans="2:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>11</v>
+      <c r="F45" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" t="s">
         <v>14</v>
       </c>
     </row>
